--- a/서울_자치구_태양광_생산량(21~23년도).xlsx
+++ b/서울_자치구_태양광_생산량(21~23년도).xlsx
@@ -19,327 +19,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="107">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="108">
+  <x:si>
+    <x:t>중구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노원구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강북구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성동구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용산구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마포구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중랑구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종로구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강동구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광진구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성북구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은평구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동작구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서초구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강남구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송파구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금천구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도봉구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양천구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강서구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구로구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관악구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,486</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,993</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,783</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,604</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,920</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,923</x:t>
+  </x:si>
   <x:si>
     <x:t>1,390</x:t>
   </x:si>
   <x:si>
+    <x:t>기초지자체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,232</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,908</x:t>
   </x:si>
   <x:si>
-    <x:t>2,923</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,481</x:t>
   </x:si>
   <x:si>
-    <x:t>1,902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,437</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,993</x:t>
-  </x:si>
-  <x:si>
     <x:t>2,778</x:t>
   </x:si>
   <x:si>
-    <x:t>3,783</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021</x:t>
+    <x:t>1,624</x:t>
   </x:si>
   <x:si>
     <x:t>광역지자체</x:t>
   </x:si>
   <x:si>
-    <x:t>기초지자체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,624</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,486</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,013</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,956</x:t>
   </x:si>
   <x:si>
-    <x:t>2,604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,920</x:t>
+    <x:t>2,872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,588</x:t>
   </x:si>
   <x:si>
     <x:t>4,562</x:t>
   </x:si>
   <x:si>
+    <x:t>2,599</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영등포구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,609</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동대문구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,563</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,295</x:t>
   </x:si>
   <x:si>
-    <x:t>3,137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,609</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>556</x:t>
-  </x:si>
-  <x:si>
-    <x:t>723</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태양광 생산량(toe)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>699</x:t>
-  </x:si>
-  <x:si>
-    <x:t>702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강동구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종로구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광진구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성동구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용산구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성북구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중랑구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강북구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노원구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마포구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강서구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구로구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양천구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은평구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관악구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서초구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송파구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강남구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금천구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도봉구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동작구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,813</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,599</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,880</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,227</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동대문구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영등포구</x:t>
+    <x:t>1,231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,878</x:t>
   </x:si>
   <x:si>
     <x:t>서대문구</x:t>
   </x:si>
   <x:si>
-    <x:t>2,414</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,872</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,795</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,856</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,663</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,654</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,891</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,878</x:t>
+    <x:t>1,641</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,539</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,929</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,501</x:t>
   </x:si>
   <x:si>
     <x:t>2023</x:t>
   </x:si>
   <x:si>
+    <x:t>5,833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,537</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,759</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,833</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,800</x:t>
   </x:si>
   <x:si>
-    <x:t>2,539</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,744</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,641</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,537</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,929</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,880</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,759</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>661</x:t>
-  </x:si>
-  <x:si>
-    <x:t>766</x:t>
+    <x:t>※ TOE(Ton of Oil Equivalent, 원유환산톤) 1TOE=4.38MWh (중형승용차 기준, 서울~부산 16회 왕복할 양)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">태양광 생산량(toe) </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -479,7 +482,7 @@
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <x:cellStyle name="표준" xfId="1" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준" xfId="1"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1160,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:D252"/>
+  <x:dimension ref="A1:F252"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
+      <x:selection activeCell="F1" activeCellId="0" sqref="F1:F1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1172,239 +1175,242 @@
     <x:col min="2" max="2" width="8.796875" style="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F1" t="s">
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="4" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D5" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B14" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B16" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B17" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
         <x:v>78</x:v>
@@ -1412,13 +1418,13 @@
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
         <x:v>79</x:v>
@@ -1426,83 +1432,83 @@
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B19" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B20" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C20" s="4" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C20" s="4" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="D20" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B21" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="A22" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B22" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="A23" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B23" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B24" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C24" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D24" s="4" t="s">
         <x:v>77</x:v>
@@ -1510,27 +1516,27 @@
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="A25" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B25" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
       <x:c r="A26" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B26" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C26" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D26" s="4" t="s">
         <x:v>80</x:v>
@@ -1538,139 +1544,139 @@
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B27" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C27" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D27" s="4" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="D27" s="4" t="s">
-        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B28" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C28" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D28" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B29" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D29" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B30" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D30" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B31" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C31" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D31" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B32" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C32" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D32" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B33" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C33" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D33" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B34" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C34" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D34" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B35" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C35" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D35" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B36" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C36" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D36" s="4" t="s">
         <x:v>59</x:v>
@@ -1678,562 +1684,562 @@
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B37" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C37" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D37" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B38" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C38" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D38" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B39" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C39" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D39" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B40" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C40" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D40" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B41" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C41" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D41" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="A42" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B42" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C42" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D42" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B43" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C43" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D43" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
       <x:c r="A44" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B44" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C44" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D44" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
       <x:c r="A45" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B45" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C45" s="4" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C45" s="4" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="D45" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
       <x:c r="A46" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B46" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D46" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
       <x:c r="A47" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B47" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C47" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D47" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B48" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C48" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D48" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4">
       <x:c r="A49" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B49" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C49" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D49" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:4">
       <x:c r="A50" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B50" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C50" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D50" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:4">
       <x:c r="A51" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B51" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C51" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D51" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:4">
       <x:c r="A52" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B52" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C52" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D52" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:4">
       <x:c r="A53" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B53" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C53" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D53" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:4">
       <x:c r="A54" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B54" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C54" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D54" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:4">
       <x:c r="A55" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B55" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C55" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D55" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:4">
       <x:c r="A56" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B56" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C56" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D56" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:4">
       <x:c r="A57" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B57" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C57" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D57" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:4">
       <x:c r="A58" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B58" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C58" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D58" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:4">
       <x:c r="A59" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B59" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C59" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D59" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:4">
       <x:c r="A60" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B60" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C60" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D60" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:4">
       <x:c r="A61" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B61" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C61" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D61" s="4" t="s">
-        <x:v>91</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:4">
       <x:c r="A62" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B62" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C62" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D62" s="4" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:4">
       <x:c r="A63" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B63" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C63" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D63" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:4">
       <x:c r="A64" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B64" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C64" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D64" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:4">
       <x:c r="A65" s="4" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B65" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C65" s="4" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="B65" s="4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C65" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="D65" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:4">
       <x:c r="A66" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B66" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C66" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D66" s="4" t="s">
-        <x:v>99</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:4">
       <x:c r="A67" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B67" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C67" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D67" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:4">
       <x:c r="A68" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B68" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C68" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D68" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:4">
       <x:c r="A69" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B69" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C69" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D69" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:4">
       <x:c r="A70" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B70" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C70" s="4" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C70" s="4" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="D70" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:4">
       <x:c r="A71" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B71" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C71" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D71" s="4" t="s">
-        <x:v>104</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:4">
       <x:c r="A72" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B72" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C72" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D72" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:4">
       <x:c r="A73" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B73" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C73" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D73" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:4">
       <x:c r="A74" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B74" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C74" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D74" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:4">
       <x:c r="A75" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B75" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C75" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D75" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:4">
       <x:c r="A76" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B76" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C76" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D76" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:4">
